--- a/Excel Files/Scenario 13/Roles and Users Managements.xlsx
+++ b/Excel Files/Scenario 13/Roles and Users Managements.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8C6FD-3B03-4240-8E95-12397313AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C205CD-7424-41AA-A240-32B96112A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Roles" sheetId="1" r:id="rId1"/>
-    <sheet name="RolePermission-Customer" sheetId="3" r:id="rId2"/>
-    <sheet name="IncrementNo" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="RolePermission-Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="IncrementNo" sheetId="4" r:id="rId4"/>
+    <sheet name="RolePermission-Customer-add" sheetId="5" r:id="rId5"/>
+    <sheet name="RolePermission-Customer-remove" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -80,6 +83,12 @@
   </si>
   <si>
     <t>IncrementNo</t>
+  </si>
+  <si>
+    <t>ORDER.OCS011.PRINT</t>
+  </si>
+  <si>
+    <t>ORDER.OSS011.DOWNLOAD</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -493,11 +502,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1694D081-5BAF-4453-9A70-946A44AB0A77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8B2C5-39E4-4C64-A1B7-C11561494DC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -543,11 +564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F68954-9A31-4F1E-AA46-8E2C72E6DBA1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +587,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565DFB9C-12F2-4C13-B89F-ABDDE0F3D3A2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135E159-9456-4176-A0C0-1AF63F147AB5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Files/Scenario 13/Roles and Users Managements.xlsx
+++ b/Excel Files/Scenario 13/Roles and Users Managements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C205CD-7424-41AA-A240-32B96112A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F889021-7E97-4B73-AFB7-B3E4AFE33869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,9 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565DFB9C-12F2-4C13-B89F-ABDDE0F3D3A2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -603,7 +601,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -621,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135E159-9456-4176-A0C0-1AF63F147AB5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -631,7 +627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Excel Files/Scenario 13/Roles and Users Managements.xlsx
+++ b/Excel Files/Scenario 13/Roles and Users Managements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F889021-7E97-4B73-AFB7-B3E4AFE33869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C8146-F02B-4BC5-ABF2-CBB0FFD2001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Roles" sheetId="1" r:id="rId1"/>
@@ -479,11 +479,11 @@
       </c>
       <c r="B2" t="str">
         <f>"TB-RNMS13-"&amp;IncrementNo!A2</f>
-        <v>TB-RNMS13-5</v>
+        <v>TB-RNMS13-2</v>
       </c>
       <c r="C2" t="str">
         <f>"TB-RNTS13-"&amp;IncrementNo!A2</f>
-        <v>TB-RNTS13-5</v>
+        <v>TB-RNTS13-2</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F68954-9A31-4F1E-AA46-8E2C72E6DBA1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135E159-9456-4176-A0C0-1AF63F147AB5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/Excel Files/Scenario 13/Roles and Users Managements.xlsx
+++ b/Excel Files/Scenario 13/Roles and Users Managements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C8146-F02B-4BC5-ABF2-CBB0FFD2001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0F0973-BACD-4857-B379-9EEEBCD23711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Roles" sheetId="1" r:id="rId1"/>
@@ -479,11 +479,11 @@
       </c>
       <c r="B2" t="str">
         <f>"TB-RNMS13-"&amp;IncrementNo!A2</f>
-        <v>TB-RNMS13-2</v>
+        <v>TB-RNMS13-4</v>
       </c>
       <c r="C2" t="str">
         <f>"TB-RNTS13-"&amp;IncrementNo!A2</f>
-        <v>TB-RNTS13-2</v>
+        <v>TB-RNTS13-4</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F68954-9A31-4F1E-AA46-8E2C72E6DBA1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +581,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135E159-9456-4176-A0C0-1AF63F147AB5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
